--- a/data/trans_orig/P80_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P80_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>465308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>450461</v>
+        <v>448202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>476610</v>
+        <v>475689</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9362037008534793</v>
+        <v>0.9362037008534791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9063315638913199</v>
+        <v>0.9017853142205986</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.958943514006999</v>
+        <v>0.9570907289665754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>833</v>
@@ -762,19 +762,19 @@
         <v>602268</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>592069</v>
+        <v>592673</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>609055</v>
+        <v>609472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9671884480192694</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9508100479008998</v>
+        <v>0.95177870141707</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.978088057021638</v>
+        <v>0.9787571991928058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1260</v>
@@ -783,19 +783,19 @@
         <v>1067576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1050157</v>
+        <v>1050178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1080459</v>
+        <v>1080216</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9534350442084224</v>
+        <v>0.9534350442084226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9378778427205352</v>
+        <v>0.9378967899185886</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9649400082562194</v>
+        <v>0.9647232621400749</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>20444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11327</v>
+        <v>11281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34617</v>
+        <v>35103</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04113377634183626</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02279074869713199</v>
+        <v>0.02269845290984812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06965008956928413</v>
+        <v>0.07062706574297314</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4946</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1925</v>
+        <v>2047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10441</v>
+        <v>10283</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.007942259308209127</v>
+        <v>0.007942259308209125</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003091412657892191</v>
+        <v>0.003287183252783976</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01676732986995848</v>
+        <v>0.01651287573976205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>25390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15948</v>
+        <v>16202</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40878</v>
+        <v>39699</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02267519659556204</v>
+        <v>0.02267519659556205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01424305840903551</v>
+        <v>0.01446955960403945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03650733722240757</v>
+        <v>0.03545468255523946</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8174</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3538</v>
+        <v>3683</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17441</v>
+        <v>18328</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01644611022616644</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007118643916784423</v>
+        <v>0.007409796496168014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03509146989997784</v>
+        <v>0.03687675936804021</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -904,19 +904,19 @@
         <v>5076</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2155</v>
+        <v>2320</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9991</v>
+        <v>10263</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008151229397706817</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003460335352797729</v>
+        <v>0.003725824605995182</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01604396004109945</v>
+        <v>0.01648140392853522</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -925,19 +925,19 @@
         <v>13250</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7423</v>
+        <v>7439</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21560</v>
+        <v>21575</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01183313278669473</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006629786321998311</v>
+        <v>0.006643701676728887</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01925526314570378</v>
+        <v>0.01926809322782335</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6125</v>
+        <v>7046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00396228075628877</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01232391767702704</v>
+        <v>0.01417724890181238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4997</v>
+        <v>4580</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002308437675733702</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008024665601118006</v>
+        <v>0.007355483050863127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -996,19 +996,19 @@
         <v>3407</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>761</v>
+        <v>980</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8839</v>
+        <v>8766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003042539897221639</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006792262560147266</v>
+        <v>0.0008749826044773797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007894338439071487</v>
+        <v>0.007828608442503795</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6334</v>
+        <v>6669</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002254131822229269</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.012744713713032</v>
+        <v>0.0134172890010941</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1046,19 +1046,19 @@
         <v>8973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4763</v>
+        <v>4272</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17041</v>
+        <v>16696</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01440962559908108</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007648385631340327</v>
+        <v>0.006860267637894961</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02736614972132893</v>
+        <v>0.02681183758534012</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>10093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5121</v>
+        <v>5117</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17709</v>
+        <v>17938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009014086512099007</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00457316076446615</v>
+        <v>0.004569730218583121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01581534048810801</v>
+        <v>0.01602020161928342</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>942021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>929625</v>
+        <v>928480</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>950130</v>
+        <v>950404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9811319732585244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.968221418998228</v>
+        <v>0.9670290962230504</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9895772650743171</v>
+        <v>0.9898627158778708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1589</v>
@@ -1192,19 +1192,19 @@
         <v>1099154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1087720</v>
+        <v>1086605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1105973</v>
+        <v>1105350</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9867550088285818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9764900097739442</v>
+        <v>0.9754890902289084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9928763825218089</v>
+        <v>0.9923170336951747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2485</v>
@@ -1213,19 +1213,19 @@
         <v>2041174</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2025590</v>
+        <v>2025226</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2052589</v>
+        <v>2052150</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9841519385852869</v>
+        <v>0.9841519385852872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9766378270688479</v>
+        <v>0.9764625897005912</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9896553352641045</v>
+        <v>0.9894440074533104</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>4141</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9965</v>
+        <v>10706</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004313279199705709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001023819695221374</v>
+        <v>0.001027013983494399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01037888363038117</v>
+        <v>0.01115018885593655</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1263,19 +1263,19 @@
         <v>3358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9688</v>
+        <v>8401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003014668711307158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0006765431431602089</v>
+        <v>0.0006802004959589638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008697510550860883</v>
+        <v>0.007541988122395965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1284,19 +1284,19 @@
         <v>7499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2952</v>
+        <v>3603</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>13648</v>
+        <v>15363</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.003615834092152565</v>
+        <v>0.003615834092152566</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001423537867922682</v>
+        <v>0.001737024750111171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.006580434465291576</v>
+        <v>0.007407455032099231</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>10036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3712</v>
+        <v>3937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21452</v>
+        <v>21684</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01045306548291448</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003865967946572924</v>
+        <v>0.004100758503356116</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02234294855040119</v>
+        <v>0.02258389836137955</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1334,19 +1334,19 @@
         <v>5530</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1657</v>
+        <v>1621</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16113</v>
+        <v>17378</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.004964717955084804</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001487583928021094</v>
+        <v>0.00145527011333132</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01446499896899205</v>
+        <v>0.01560095897015057</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>15567</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7705</v>
+        <v>7848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29253</v>
+        <v>28727</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.007505437101630821</v>
+        <v>0.007505437101630822</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003714809370326369</v>
+        <v>0.003783927965094619</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01410421333565736</v>
+        <v>0.01385055268417742</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9323</v>
+        <v>8413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002675430431747083</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009710503777914317</v>
+        <v>0.008762208408566128</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3571</v>
+        <v>3518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0006315023814320919</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.003205687008707882</v>
+        <v>0.003157882551487247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1426,19 +1426,19 @@
         <v>3272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9171</v>
+        <v>9651</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001577697407396733</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0003368232475138931</v>
+        <v>0.0003400635631587497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004421984650478545</v>
+        <v>0.0046532651467668</v>
       </c>
     </row>
     <row r="14">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6838</v>
+        <v>7906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001426251627108322</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007122284651126652</v>
+        <v>0.008234672656024416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1476,19 +1476,19 @@
         <v>5162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11794</v>
+        <v>11987</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004634102123594034</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001504578808711951</v>
+        <v>0.001502000944922045</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01058794582823177</v>
+        <v>0.01076141624982116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1497,19 +1497,19 @@
         <v>6531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2244</v>
+        <v>2162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13893</v>
+        <v>13624</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003149092813532841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00108203675743316</v>
+        <v>0.001042468608511062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006698358400604707</v>
+        <v>0.00656894999478177</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>1038429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1027560</v>
+        <v>1025795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1043695</v>
+        <v>1043416</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9923080014765817</v>
+        <v>0.9923080014765818</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9819216802058777</v>
+        <v>0.9802343758655334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9973393906836839</v>
+        <v>0.99707291264732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1503</v>
@@ -1622,19 +1622,19 @@
         <v>1037182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1029755</v>
+        <v>1029560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1041674</v>
+        <v>1041186</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9916011822257617</v>
+        <v>0.9916011822257615</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9845003123359666</v>
+        <v>0.9843139737265945</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9958958260357201</v>
+        <v>0.9954287386057282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2526</v>
@@ -1643,19 +1643,19 @@
         <v>2075612</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2063594</v>
+        <v>2063223</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2082826</v>
+        <v>2082392</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9919546784250267</v>
+        <v>0.9919546784250264</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9862112651383999</v>
+        <v>0.9860339354270036</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9954026652487256</v>
+        <v>0.9951951634544295</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>8050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2784</v>
+        <v>3063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18919</v>
+        <v>20684</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007691998523418259</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002660609316316056</v>
+        <v>0.002927087352679988</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01807831979412227</v>
+        <v>0.01976562413446654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1693,19 +1693,19 @@
         <v>4168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1399</v>
+        <v>1426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9649</v>
+        <v>10089</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003984382071390822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00133768515704794</v>
+        <v>0.001363146649228805</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.009225164069213934</v>
+        <v>0.009645728046328943</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1714,19 +1714,19 @@
         <v>12217</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6080</v>
+        <v>6416</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24383</v>
+        <v>24431</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.005838644420079335</v>
+        <v>0.005838644420079334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002905889722018839</v>
+        <v>0.00306632721838297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01165286264726632</v>
+        <v>0.0116757763354057</v>
       </c>
     </row>
     <row r="18">
@@ -1756,19 +1756,19 @@
         <v>1661</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4477</v>
+        <v>5139</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001588066557531941</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0004100216223097219</v>
+        <v>0.0004127576219929811</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.004280206998196093</v>
+        <v>0.004913198215914499</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>1661</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4981</v>
+        <v>4562</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0007938387664580799</v>
+        <v>0.0007938387664580797</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.000203863417832678</v>
+        <v>0.0002050378809207478</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.002380470136889238</v>
+        <v>0.002180122914666936</v>
       </c>
     </row>
     <row r="19">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7473</v>
+        <v>7476</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001440602337276755</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007144427819630064</v>
+        <v>0.007147142279930827</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1843,16 +1843,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7599</v>
+        <v>7622</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.000720124718297523</v>
+        <v>0.0007201247182975227</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003631800504169328</v>
+        <v>0.003642467827088684</v>
       </c>
     </row>
     <row r="20">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4712</v>
+        <v>5066</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001385766808038912</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004505092452771902</v>
+        <v>0.0048433100319744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5008</v>
+        <v>4901</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0006927136701384977</v>
+        <v>0.0006927136701384976</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.002393287147178796</v>
+        <v>0.002342438899929042</v>
       </c>
     </row>
     <row r="21">
@@ -2007,19 +2007,19 @@
         <v>953611</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>938549</v>
+        <v>939001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>962993</v>
+        <v>962952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9782535654008323</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9628022581410284</v>
+        <v>0.9632652277126095</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9878772975670824</v>
+        <v>0.9878353381746952</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1303</v>
@@ -2028,19 +2028,19 @@
         <v>894928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>885696</v>
+        <v>887908</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>900076</v>
+        <v>900104</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9876888023162445</v>
+        <v>0.9876888023162442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9775001189639079</v>
+        <v>0.9799408806885873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9933702281765749</v>
+        <v>0.9934008064752281</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2234</v>
@@ -2049,19 +2049,19 @@
         <v>1848539</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1832452</v>
+        <v>1831791</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1860067</v>
+        <v>1859722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9827988053657515</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.97424580375197</v>
+        <v>0.9738945779361644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9889275841904258</v>
+        <v>0.9887441283122972</v>
       </c>
     </row>
     <row r="23">
@@ -2078,19 +2078,19 @@
         <v>9593</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4053</v>
+        <v>3925</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24162</v>
+        <v>23132</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.00984111905198946</v>
+        <v>0.009841119051989458</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004157323287019205</v>
+        <v>0.004026687845858948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02478609480326844</v>
+        <v>0.02372993188559051</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2099,19 +2099,19 @@
         <v>6338</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2366</v>
+        <v>2626</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14246</v>
+        <v>13173</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.006995427475556317</v>
+        <v>0.006995427475556316</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002611199656658666</v>
+        <v>0.002898422964581944</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01572233194880284</v>
+        <v>0.01453870252906062</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2120,19 +2120,19 @@
         <v>15932</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8082</v>
+        <v>8370</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29027</v>
+        <v>31035</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008470263057911544</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004297062390791397</v>
+        <v>0.004450081487179966</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01543266514600061</v>
+        <v>0.01649998588558951</v>
       </c>
     </row>
     <row r="24">
@@ -2149,19 +2149,19 @@
         <v>5267</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1111</v>
+        <v>1133</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15260</v>
+        <v>14916</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005403276849813046</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001140061175360229</v>
+        <v>0.001162443118025758</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01565402005972004</v>
+        <v>0.01530159656116697</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -2170,19 +2170,19 @@
         <v>4124</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1410</v>
+        <v>1577</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8851</v>
+        <v>8724</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004551591980612167</v>
+        <v>0.004551591980612166</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001555700197565283</v>
+        <v>0.001740496738803769</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009768256442153105</v>
+        <v>0.009627937136604136</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2191,19 +2191,19 @@
         <v>9391</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4272</v>
+        <v>4062</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19992</v>
+        <v>19380</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004992994401188409</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002271424707190165</v>
+        <v>0.002159528547400934</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01062876166638771</v>
+        <v>0.01030338517896005</v>
       </c>
     </row>
     <row r="25">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15538</v>
+        <v>15037</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003956812869447436</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01593960195791273</v>
+        <v>0.01542570371965607</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4838</v>
+        <v>4600</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0007641782275871474</v>
+        <v>0.0007641782275871473</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005338921813527779</v>
+        <v>0.005076871021424512</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2262,19 +2262,19 @@
         <v>4550</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>687</v>
+        <v>1380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14603</v>
+        <v>16926</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002418823871644392</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0003653521062110741</v>
+        <v>0.0007338533628945714</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00776377762285572</v>
+        <v>0.008998986315893269</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>2481</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7872</v>
+        <v>8025</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002545225827917802</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0005170801794770486</v>
+        <v>0.0005146020956067674</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008075113030517443</v>
+        <v>0.008232718052260717</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2325,19 +2325,19 @@
         <v>2481</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7392</v>
+        <v>7694</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001319113303504173</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0002677060677540822</v>
+        <v>0.0002682924500494669</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.003930221053731583</v>
+        <v>0.004090762225929312</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>3399369</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3375468</v>
+        <v>3376590</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3417297</v>
+        <v>3418393</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9772680362745283</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9703966868596853</v>
+        <v>0.9707192102621265</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9824220354729353</v>
+        <v>0.9827372125776892</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5228</v>
@@ -2450,19 +2450,19 @@
         <v>3633533</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3616788</v>
+        <v>3617917</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3646496</v>
+        <v>3646533</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9850554545189217</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.980516021271769</v>
+        <v>0.9808220863433044</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9885697471646987</v>
+        <v>0.9885799126411874</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8505</v>
@@ -2471,19 +2471,19 @@
         <v>7032902</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7003762</v>
+        <v>7005615</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7056734</v>
+        <v>7055965</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9812759507692447</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9772102161524718</v>
+        <v>0.9774687255684632</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9846011110630823</v>
+        <v>0.9844938002400778</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>42228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28299</v>
+        <v>29307</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61073</v>
+        <v>62995</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0121399797651236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008135472001310162</v>
+        <v>0.008425462808666278</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01755749248287574</v>
+        <v>0.01811004797775397</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -2521,19 +2521,19 @@
         <v>18810</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12318</v>
+        <v>11785</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>29090</v>
+        <v>28353</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.005099329097495484</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003339512701409931</v>
+        <v>0.003194982608496549</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.007886428901287311</v>
+        <v>0.00768663843632152</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>56</v>
@@ -2542,19 +2542,19 @@
         <v>61038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46257</v>
+        <v>44423</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>82899</v>
+        <v>80119</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.008516400681858464</v>
+        <v>0.008516400681858466</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006454026205807331</v>
+        <v>0.006198172566985492</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01156665738099409</v>
+        <v>0.01117873749051528</v>
       </c>
     </row>
     <row r="30">
@@ -2571,19 +2571,19 @@
         <v>23478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13403</v>
+        <v>13060</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37979</v>
+        <v>37111</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006749435187910373</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003853299522243045</v>
+        <v>0.003754637574044361</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01091851838309452</v>
+        <v>0.0106688861764644</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2592,19 +2592,19 @@
         <v>16391</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9489</v>
+        <v>10081</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26620</v>
+        <v>27815</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004443674908308467</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002572570682865781</v>
+        <v>0.00273291566518318</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007216613275778349</v>
+        <v>0.007540677742498158</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2613,19 +2613,19 @@
         <v>39869</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28512</v>
+        <v>27651</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57929</v>
+        <v>56399</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005562740219701739</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003978130170798008</v>
+        <v>0.003858099212188141</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008082633325180954</v>
+        <v>0.007869118763146192</v>
       </c>
     </row>
     <row r="31">
@@ -2642,19 +2642,19 @@
         <v>8395</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3137</v>
+        <v>3080</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20128</v>
+        <v>19764</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00241350462491746</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.000901830552848655</v>
+        <v>0.0008853826301703373</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.005786565018224244</v>
+        <v>0.005681790196616665</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2663,19 +2663,19 @@
         <v>4340</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1397</v>
+        <v>1456</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10182</v>
+        <v>10931</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001176615345469772</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0003787528736711719</v>
+        <v>0.0003946488092546497</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.002760430125676773</v>
+        <v>0.00296342139793478</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -2684,19 +2684,19 @@
         <v>12735</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6439</v>
+        <v>6457</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23635</v>
+        <v>23532</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001776920545845201</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0008983456068760799</v>
+        <v>0.0009009047441583561</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.003297747608512811</v>
+        <v>0.003283343738440826</v>
       </c>
     </row>
     <row r="32">
@@ -2713,19 +2713,19 @@
         <v>4971</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1617</v>
+        <v>1598</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11180</v>
+        <v>11359</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001429044147520183</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0004649740279362851</v>
+        <v>0.0004595065012497148</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.003214043995033835</v>
+        <v>0.003265448966485821</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2734,19 +2734,19 @@
         <v>15584</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9622</v>
+        <v>9116</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25652</v>
+        <v>25666</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.004224926129804663</v>
+        <v>0.004224926129804662</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0026085257557601</v>
+        <v>0.002471476643276278</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.006954396896933959</v>
+        <v>0.006958093103711537</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -2755,19 +2755,19 @@
         <v>20555</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13325</v>
+        <v>13441</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31812</v>
+        <v>31046</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002867987783349925</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001859258232275013</v>
+        <v>0.001875310666440678</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.004438617888267088</v>
+        <v>0.004331746543115409</v>
       </c>
     </row>
     <row r="33">
